--- a/data_excel/473.xlsx
+++ b/data_excel/473.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>城城</t>
   </si>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -565,13 +565,13 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -582,16 +582,16 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,13 +622,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,6 +640,15 @@
       </c>
       <c r="C8" t="s">
         <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
